--- a/PDRMYE/PLANTILLAS/ORGANISMOS/PLANTILLA DE CARGA ORGANISMOS.xlsx
+++ b/PDRMYE/PLANTILLAS/ORGANISMOS/PLANTILLA DE CARGA ORGANISMOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Infinite\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\PDRMYE\PLANTILLAS\ORGANISMOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1353,7 +1353,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PDRMYE/PLANTILLAS/ORGANISMOS/PLANTILLA DE CARGA ORGANISMOS.xlsx
+++ b/PDRMYE/PLANTILLAS/ORGANISMOS/PLANTILLA DE CARGA ORGANISMOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\PDRMYE\PLANTILLAS\ORGANISMOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\INAP\PDRMyE\AllDocuments\All-documents\PDRMYE\PLANTILLAS\ORGANISMOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -790,7 +790,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Datos de Cabecera</t>
   </si>
@@ -886,9 +886,6 @@
   </si>
   <si>
     <t>APORTACION ESTATAL A UTILIZAR EN SERVICIOS PERSONALES EN LA SEGUNDA QUINCENA DEL MES DE ENERO DE 2021.</t>
-  </si>
-  <si>
-    <t>febrero</t>
   </si>
   <si>
     <t>APORTACION ESTATAL A UTILIZAR EN SERVICIOS PERSONALES Y GASTO OPERATIVO CORRESPONDIENTES A LA SEGUNDA QUINCENA DEL MES DE FEBRERO DE 2021.</t>
@@ -1351,9 +1348,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,16 +1447,16 @@
         <v>7</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>8</v>
@@ -1477,22 +1474,22 @@
         <v>12</v>
       </c>
       <c r="P2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>13</v>
@@ -1501,10 +1498,10 @@
         <v>14</v>
       </c>
       <c r="X2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="Z2" s="9" t="s">
         <v>15</v>
@@ -1522,15 +1519,15 @@
         <v>19</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF2" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" s="4">
+        <v>498634</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -1569,8 +1566,8 @@
         <v>26</v>
       </c>
       <c r="Q3"/>
-      <c r="R3">
-        <v>1</v>
+      <c r="R3" s="4">
+        <v>498634</v>
       </c>
       <c r="S3">
         <v>465</v>
@@ -1616,8 +1613,8 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" s="4">
+        <v>500926</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -1646,8 +1643,8 @@
       <c r="M4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="6">
-        <v>1312500</v>
+      <c r="N4">
+        <v>2654822.96</v>
       </c>
       <c r="O4">
         <v>18</v>
@@ -1656,8 +1653,8 @@
         <v>26</v>
       </c>
       <c r="Q4"/>
-      <c r="R4">
-        <v>2</v>
+      <c r="R4" s="4">
+        <v>500926</v>
       </c>
       <c r="S4">
         <v>465</v>
@@ -1703,54 +1700,22 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2021</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>613762</v>
-      </c>
-      <c r="I5" s="4">
-        <v>504924</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="6">
-        <v>1342322.96</v>
-      </c>
-      <c r="O5">
-        <v>18</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="7"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="6"/>
+      <c r="P5" s="1"/>
       <c r="Q5"/>
-      <c r="R5">
-        <v>3</v>
+      <c r="R5" s="4">
+        <v>500926</v>
       </c>
       <c r="S5">
         <v>465</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U5" s="2">
         <v>1342322.96</v>
